--- a/biology/Médecine/Hôpital_Leishenshan/Hôpital_Leishenshan.xlsx
+++ b/biology/Médecine/Hôpital_Leishenshan/Hôpital_Leishenshan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Leishenshan</t>
+          <t>Hôpital_Leishenshan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Leishenshan (chinois simplifié : 雷神山医院 ; litt. « hôpital de la montagne du Dieu du tonnerre ») est, avec l'hôpital Huoshenshan, un des deux hôpitaux de campagne construits à Wuhan par le gouvernement chinois en réponse à la pandémie de Covid-19. L'hôpital est placé sous la direction de l'Armée populaire de libération[1].
-La fin des travaux est prévue pour le 6 février 2020[2]. L'hôpital accueillera 1 600 lits[3].
+L'hôpital Leishenshan (chinois simplifié : 雷神山医院 ; litt. « hôpital de la montagne du Dieu du tonnerre ») est, avec l'hôpital Huoshenshan, un des deux hôpitaux de campagne construits à Wuhan par le gouvernement chinois en réponse à la pandémie de Covid-19. L'hôpital est placé sous la direction de l'Armée populaire de libération.
+La fin des travaux est prévue pour le 6 février 2020. L'hôpital accueillera 1 600 lits.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Leishenshan</t>
+          <t>Hôpital_Leishenshan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'hôpital Huoshenshan, la ville de Wuhan décide de construire un autre hôpital le 25 janvier situé au parking numéro 3 du village des athlètes dans le district de Jiangxia à Wuhan. Le 27 janvier, une commission annonce l'allocation de 300 millions de yuans pour la construction des deux hôpitaux[4]. Le même jour, la State Grid Corporation of China annonce un don matériel équivalent à 60,28 millions de yuans pour la construction des hôpitaux[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'hôpital Huoshenshan, la ville de Wuhan décide de construire un autre hôpital le 25 janvier situé au parking numéro 3 du village des athlètes dans le district de Jiangxia à Wuhan. Le 27 janvier, une commission annonce l'allocation de 300 millions de yuans pour la construction des deux hôpitaux. Le même jour, la State Grid Corporation of China annonce un don matériel équivalent à 60,28 millions de yuans pour la construction des hôpitaux. 
 </t>
         </is>
       </c>
